--- a/componment_info_quiry/dest/定制件.xlsx
+++ b/componment_info_quiry/dest/定制件.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Part Number</t>
   </si>
@@ -67,28 +67,94 @@
     <t>ROHS</t>
   </si>
   <si>
+    <t>24002-00291</t>
+  </si>
+  <si>
+    <t>25002-00008</t>
+  </si>
+  <si>
+    <t>25003-00005</t>
+  </si>
+  <si>
     <t>25011-00010</t>
   </si>
   <si>
+    <t>63003-00006</t>
+  </si>
+  <si>
+    <t>高频变压器;12:15:15;230uH;±25%;DMR40;B;定制;储能产品用LLC低压侧驱动变压器;RoHS</t>
+  </si>
+  <si>
+    <t>贴片电感;39uH;B;片状电感器;39UH-CD104;RoHS</t>
+  </si>
+  <si>
+    <t>共模电感;单相;260mA;锰锌;B;定制;RoHS</t>
+  </si>
+  <si>
     <t>EMI磁珠、磁环;磁珠;500 Ω;0.25;2.2*1.4*1.1 mm;RoHS</t>
   </si>
   <si>
+    <t>十字小盘头弹垫平垫组合螺钉M4*8; 彩锌;RoHS</t>
+  </si>
+  <si>
+    <t>PG1550T5;PG1550T5;</t>
+  </si>
+  <si>
+    <t>PIO104-390MT;</t>
+  </si>
+  <si>
+    <t>CMC1206S-601T;WCM-3216-601T;</t>
+  </si>
+  <si>
     <t>CBG201209U501T;</t>
   </si>
   <si>
+    <t>可立克;博罗达鑫;</t>
+  </si>
+  <si>
     <t>风华高科;</t>
   </si>
   <si>
+    <t>风华高科;科普伦科技;</t>
+  </si>
+  <si>
     <t>EACH</t>
   </si>
   <si>
-    <t>L1,L2</t>
+    <t>TR1</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>L1,L2,L7,L10</t>
+  </si>
+  <si>
+    <t>L3,L4,L5,L6,L8,L9,L12,L13</t>
+  </si>
+  <si>
+    <t>H1,H2,H3,H4</t>
+  </si>
+  <si>
+    <t>C;C;</t>
+  </si>
+  <si>
+    <t>F;C;</t>
   </si>
   <si>
     <t>C;</t>
   </si>
   <si>
     <t>光伏松岗</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>RoHS;RoHS;</t>
+  </si>
+  <si>
+    <t>RoHS;</t>
   </si>
   <si>
     <t xml:space="preserve"> ;</t>
@@ -449,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,52 +582,264 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>70</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>300</v>
+      </c>
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>310</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>856</v>
+      </c>
+      <c r="M3">
+        <v>6191</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>13361</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>2268</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>9907</v>
+      </c>
+      <c r="M4">
+        <v>1210</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>7666</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>80</v>
+      </c>
+      <c r="J5">
+        <v>33310</v>
+      </c>
+      <c r="K5">
+        <v>100000</v>
+      </c>
+      <c r="L5">
+        <v>95382</v>
+      </c>
+      <c r="M5">
+        <v>62</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>7008</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>45401</v>
-      </c>
-      <c r="K2">
-        <v>120000</v>
-      </c>
-      <c r="L2">
-        <v>163139</v>
-      </c>
-      <c r="M2">
-        <v>62</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>7008</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>6201</v>
+      </c>
+      <c r="K6">
+        <v>208000</v>
+      </c>
+      <c r="L6">
+        <v>925924</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
